--- a/Traduzido/PTBR/Lang/PTBR/Game/Religion.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Religion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D66397A-1C93-4CE0-ABBE-D6AAFA0FCF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F440BC9-44F5-4374-B576-E4CF8BF2EBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,9 +490,6 @@
     <t xml:space="preserve">Horome da Sombra da Lua  </t>
   </si>
   <si>
-    <t xml:space="preserve">Yevan do Conflito  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Outrora um dos Deuses mais renomados, ele caiu no Vazio após as maquinações de Mani e Lulwy o levarem a romper um pacto ancestral.  </t>
   </si>
   <si>
@@ -614,6 +611,9 @@
   </si>
   <si>
     <t>Vazio,Eyth</t>
+  </si>
+  <si>
+    <t>Eavan, a Catástrofe da Guerra.</t>
   </si>
 </sst>
 </file>
@@ -993,14 +993,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="14" width="16" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1077,7 +1080,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1086,7 +1089,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1095,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1104,7 +1107,7 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P3" t="s">
         <v>26</v>
@@ -1130,7 +1133,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -1139,7 +1142,7 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -1148,7 +1151,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
@@ -1157,7 +1160,7 @@
         <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P4" t="s">
         <v>37</v>
@@ -1183,7 +1186,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1192,7 +1195,7 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
@@ -1201,7 +1204,7 @@
         <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -1210,7 +1213,7 @@
         <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P5" t="s">
         <v>48</v>
@@ -1236,7 +1239,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -1245,7 +1248,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
         <v>55</v>
@@ -1254,7 +1257,7 @@
         <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M6" t="s">
         <v>46</v>
@@ -1263,7 +1266,7 @@
         <v>47</v>
       </c>
       <c r="O6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P6" t="s">
         <v>57</v>
@@ -1289,7 +1292,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -1298,7 +1301,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
         <v>64</v>
@@ -1307,7 +1310,7 @@
         <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M7" t="s">
         <v>46</v>
@@ -1316,7 +1319,7 @@
         <v>47</v>
       </c>
       <c r="O7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P7" t="s">
         <v>66</v>
@@ -1342,7 +1345,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -1351,7 +1354,7 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
@@ -1360,7 +1363,7 @@
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
@@ -1369,7 +1372,7 @@
         <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P8" t="s">
         <v>75</v>
@@ -1395,7 +1398,7 @@
         <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>
@@ -1404,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
         <v>82</v>
@@ -1413,7 +1416,7 @@
         <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -1422,7 +1425,7 @@
         <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P9" t="s">
         <v>84</v>
@@ -1448,7 +1451,7 @@
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
         <v>89</v>
@@ -1457,7 +1460,7 @@
         <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J10" t="s">
         <v>91</v>
@@ -1466,7 +1469,7 @@
         <v>92</v>
       </c>
       <c r="L10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M10" t="s">
         <v>35</v>
@@ -1475,7 +1478,7 @@
         <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P10" t="s">
         <v>93</v>
@@ -1501,7 +1504,7 @@
         <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
         <v>98</v>
@@ -1510,7 +1513,7 @@
         <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J11" t="s">
         <v>100</v>
@@ -1519,7 +1522,7 @@
         <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M11" t="s">
         <v>35</v>
@@ -1528,7 +1531,7 @@
         <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P11" t="s">
         <v>102</v>
@@ -1554,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G12" t="s">
         <v>107</v>
@@ -1563,7 +1566,7 @@
         <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J12" t="s">
         <v>100</v>
@@ -1572,7 +1575,7 @@
         <v>101</v>
       </c>
       <c r="L12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
@@ -1581,7 +1584,7 @@
         <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P12" t="s">
         <v>109</v>
@@ -1607,7 +1610,7 @@
         <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
         <v>114</v>
@@ -1616,7 +1619,7 @@
         <v>115</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J13" t="s">
         <v>116</v>
@@ -1625,7 +1628,7 @@
         <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -1634,7 +1637,7 @@
         <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P13" t="s">
         <v>118</v>
@@ -1660,7 +1663,7 @@
         <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
         <v>123</v>
@@ -1669,7 +1672,7 @@
         <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J14" t="s">
         <v>125</v>
@@ -1678,7 +1681,7 @@
         <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s">
         <v>35</v>
@@ -1687,7 +1690,7 @@
         <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P14" t="s">
         <v>127</v>
@@ -1704,7 +1707,7 @@
         <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
         <v>130</v>
@@ -1713,7 +1716,7 @@
         <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
         <v>132</v>
@@ -1722,7 +1725,7 @@
         <v>133</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
         <v>134</v>
@@ -1731,7 +1734,7 @@
         <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s">
         <v>46</v>
@@ -1740,7 +1743,7 @@
         <v>47</v>
       </c>
       <c r="O15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P15" t="s">
         <v>136</v>
